--- a/analysis/thalamus/figures_tables/sdmt_regressions/thalamic_nuclei.xlsx
+++ b/analysis/thalamus/figures_tables/sdmt_regressions/thalamic_nuclei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,199 +478,199 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>THALAMUS_1</t>
+          <t>AV_2</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3559088256413028</v>
+        <v>0.2748724432163118</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05467175354647905</v>
+        <v>0.04805137384841006</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2613542592036234</v>
+        <v>0.1785462059025953</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4504633920789821</v>
+        <v>0.3711986805300283</v>
       </c>
       <c r="F2" t="n">
-        <v>6.881415698742056e-13</v>
+        <v>3.582372017232858e-08</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.261354, 0.450463]</t>
+          <t>[0.178546, 0.371199]</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.569557268616263e-12</v>
+        <v>5.117674310332655e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2467208846984461</v>
+        <v>0.210234539751859</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>VLP_6</t>
+          <t>VA_4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3325421213218862</v>
+        <v>0.2258545442506983</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05309401508365403</v>
+        <v>0.05767145758543517</v>
       </c>
       <c r="D3" t="n">
-        <v>0.235157071484158</v>
+        <v>0.117033685959846</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4299271711596143</v>
+        <v>0.3346754025415506</v>
       </c>
       <c r="F3" t="n">
-        <v>5.851508728688488e-11</v>
+        <v>5.355235210899768e-05</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.235157, 0.429927]</t>
+          <t>[0.117034, 0.334675]</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.145553200519112e-10</v>
+        <v>5.355235210899768e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2319522135998444</v>
+        <v>0.1851110220959801</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Pul_8</t>
+          <t>VLa_5</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3182560731954744</v>
+        <v>0.231419236113041</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05264153725935312</v>
+        <v>0.0548352521245127</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2285543801084277</v>
+        <v>0.1240205063008439</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4079577662825211</v>
+        <v>0.3388179659252381</v>
       </c>
       <c r="F4" t="n">
-        <v>1.117824855654363e-11</v>
+        <v>2.77773192063762e-05</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[0.228554, 0.407958]</t>
+          <t>[0.124021, 0.338818]</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6.148036706098998e-11</v>
+        <v>3.086368800708467e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2374817728014005</v>
+        <v>0.187372021842353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MD_Pf_12</t>
+          <t>VLP_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3038442944212276</v>
+        <v>0.3325421213218862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04967678791585535</v>
+        <v>0.05309401508365403</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2137703370490257</v>
+        <v>0.235157071484158</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3939182517934295</v>
+        <v>0.4299271711596143</v>
       </c>
       <c r="F5" t="n">
-        <v>9.694295737398742e-11</v>
+        <v>5.851508728688488e-11</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.213770, 0.393918]</t>
+          <t>[0.235157, 0.429927]</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.665931327784654e-10</v>
+        <v>2.925754364344244e-10</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2302595401514027</v>
+        <v>0.2319522135998444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>CM_11</t>
+          <t>VPL_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2972988788405073</v>
+        <v>0.29097388633457</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05018666598514851</v>
+        <v>0.05152429932535271</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2000619387422468</v>
+        <v>0.1968378192847456</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3945358189387678</v>
+        <v>0.3851099533843945</v>
       </c>
       <c r="F6" t="n">
-        <v>3.86977347140264e-09</v>
+        <v>2.652541244884893e-09</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.200062, 0.394536]</t>
+          <t>[0.196838, 0.385110]</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.081072597918434e-09</v>
+        <v>5.305082489769786e-09</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2178134545309774</v>
+        <v>0.2190949798608581</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>VPL_7</t>
+          <t>Pul_8</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.29097388633457</v>
+        <v>0.3182560731954744</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05152429932535271</v>
+        <v>0.05264153725935312</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1968378192847456</v>
+        <v>0.2285543801084277</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3851099533843945</v>
+        <v>0.4079577662825211</v>
       </c>
       <c r="F7" t="n">
-        <v>2.652541244884893e-09</v>
+        <v>1.117824855654363e-11</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.196838, 0.385110]</t>
+          <t>[0.228554, 0.407958]</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4.86299228228897e-09</v>
+        <v>1.117824855654363e-10</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2190949798608581</v>
+        <v>0.2374817728014005</v>
       </c>
     </row>
     <row r="8">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2.624892700502444e-09</v>
+        <v>2.982832614207322e-09</v>
       </c>
       <c r="I8" t="n">
         <v>0.2218011344357572</v>
@@ -709,133 +709,100 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>AV_2</t>
+          <t>MGN_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2748724432163118</v>
+        <v>0.2523782461838238</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04805137384841006</v>
+        <v>0.05503930479950165</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1785462059025953</v>
+        <v>0.154143025178288</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3711986805300283</v>
+        <v>0.3506134671893595</v>
       </c>
       <c r="F9" t="n">
-        <v>3.582372017232858e-08</v>
+        <v>6.46791322920461e-07</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0.178546, 0.371199]</t>
+          <t>[0.154143, 0.350613]</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4.92576152369518e-08</v>
+        <v>8.084891536505763e-07</v>
       </c>
       <c r="I9" t="n">
-        <v>0.210234539751859</v>
+        <v>0.2003192043341078</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MGN_10</t>
+          <t>CM_11</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2523782461838238</v>
+        <v>0.2972988788405073</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05503930479950165</v>
+        <v>0.05018666598514851</v>
       </c>
       <c r="D10" t="n">
-        <v>0.154143025178288</v>
+        <v>0.2000619387422468</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3506134671893595</v>
+        <v>0.3945358189387678</v>
       </c>
       <c r="F10" t="n">
-        <v>6.46791322920461e-07</v>
+        <v>3.86977347140264e-09</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.154143, 0.350613]</t>
+          <t>[0.200062, 0.394536]</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7.905227280138969e-07</v>
+        <v>6.449622452337733e-09</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2003192043341078</v>
+        <v>0.2178134545309774</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>VLa_5</t>
+          <t>MD_Pf_12</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.231419236113041</v>
+        <v>0.3038442944212276</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0548352521245127</v>
+        <v>0.04967678791585535</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1240205063008439</v>
+        <v>0.2137703370490257</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3388179659252381</v>
+        <v>0.3939182517934295</v>
       </c>
       <c r="F11" t="n">
-        <v>2.77773192063762e-05</v>
+        <v>9.694295737398742e-11</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.124021, 0.338818]</t>
+          <t>[0.213770, 0.393918]</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3.055505112701382e-05</v>
+        <v>3.231431912466247e-10</v>
       </c>
       <c r="I11" t="n">
-        <v>0.187372021842353</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>VA_4</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.2258545442506983</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05767145758543517</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.117033685959846</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.3346754025415506</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5.355235210899768e-05</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>[0.117034, 0.334675]</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5.355235210899768e-05</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.1851110220959801</v>
+        <v>0.2302595401514027</v>
       </c>
     </row>
   </sheetData>
